--- a/cypress/fixtures/testCaseCriteria/testCaseCriteria_register.xlsx
+++ b/cypress/fixtures/testCaseCriteria/testCaseCriteria_register.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\awika-portfolio\automationexercise\cypress\fixtures\testCaseCriterial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\awika-portfolio\automationexercise\cypress\fixtures\testCaseCriteria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ACFA2D-9685-4844-858E-7E13CF88AB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8B5A43-9504-47B1-B181-DF3E1309868A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="-14580" windowWidth="24870" windowHeight="10425" tabRatio="553" activeTab="4" xr2:uid="{63A55816-40FB-44DD-8B96-272E0273596B}"/>
+    <workbookView xWindow="1995" yWindow="-15000" windowWidth="25860" windowHeight="11880" tabRatio="553" activeTab="1" xr2:uid="{63A55816-40FB-44DD-8B96-272E0273596B}"/>
   </bookViews>
   <sheets>
     <sheet name="column_ref" sheetId="20" r:id="rId1"/>
     <sheet name="reg_01" sheetId="1" r:id="rId2"/>
     <sheet name="reg_02" sheetId="16" r:id="rId3"/>
     <sheet name="reg_03" sheetId="22" r:id="rId4"/>
-    <sheet name="reg_default" sheetId="21" r:id="rId5"/>
-    <sheet name="reg_order" sheetId="23" r:id="rId6"/>
+    <sheet name="reg_04" sheetId="24" r:id="rId5"/>
+    <sheet name="reg_05" sheetId="25" r:id="rId6"/>
+    <sheet name="reg_06" sheetId="26" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
   <si>
     <t>action</t>
   </si>
@@ -172,15 +173,9 @@
     <t>success</t>
   </si>
   <si>
-    <t>success, failed</t>
-  </si>
-  <si>
     <t>signup|action</t>
   </si>
   <si>
-    <t>logout, delete</t>
-  </si>
-  <si>
     <t>signup|day</t>
   </si>
   <si>
@@ -193,18 +188,9 @@
     <t>signup|result</t>
   </si>
   <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>C District</t>
-  </si>
-  <si>
     <t>Tester Company</t>
   </si>
   <si>
-    <t>10001</t>
-  </si>
-  <si>
     <t>automated.test.delete@mail.com</t>
   </si>
   <si>
@@ -259,40 +245,43 @@
     <t>failed-formatEmail</t>
   </si>
   <si>
-    <t>automated.test.order@mail.com</t>
-  </si>
-  <si>
-    <t>Automated Order</t>
-  </si>
-  <si>
-    <t>automatedOrder</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>uncheck</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Product Company</t>
-  </si>
-  <si>
-    <t>002, ZZ Town YY Road</t>
-  </si>
-  <si>
-    <t>XX District</t>
-  </si>
-  <si>
-    <t>987654321</t>
+    <t>failed-filledEmail</t>
+  </si>
+  <si>
+    <t>success
+failed-exist
+failed-formatEmail
+failed-filledEmail
+failed-filledName</t>
+  </si>
+  <si>
+    <t>failed-filledName</t>
+  </si>
+  <si>
+    <t>automated.test.date@mail.com</t>
+  </si>
+  <si>
+    <t>Automated Date</t>
+  </si>
+  <si>
+    <t>automatedDate</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>success
+failed-dateOfBirth</t>
+  </si>
+  <si>
+    <t>logout
+delete</t>
+  </si>
+  <si>
+    <t>failed-dateOfBirth</t>
   </si>
 </sst>
 </file>
@@ -371,13 +360,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -396,52 +382,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -760,179 +738,182 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F9AD89-CF04-450A-A9E3-682887DC121D}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.6328125" style="4" customWidth="1"/>
-    <col min="8" max="16" width="15.6328125" style="4" customWidth="1"/>
-    <col min="17" max="18" width="30.6328125" style="4" customWidth="1"/>
-    <col min="19" max="25" width="15.6328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.6328125" style="3" customWidth="1"/>
+    <col min="8" max="16" width="15.6328125" style="3" customWidth="1"/>
+    <col min="17" max="18" width="30.6328125" style="3" customWidth="1"/>
+    <col min="19" max="25" width="15.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>37</v>
+      <c r="Y1" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="2" customFormat="1">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:25" s="12" customFormat="1" ht="72.5">
+      <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="10">
         <v>1</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="10">
         <v>1999</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9" t="s">
+      <c r="R2" s="10"/>
+      <c r="S2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="10">
+      <c r="V2" s="11">
         <v>10001</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>38</v>
+      <c r="X2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="23" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{11D72060-732E-49C0-AD66-67582348F0AB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -940,183 +921,180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A8D453-88BA-4430-BEC2-9D2C3EA6C8DE}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="30.08984375" style="5" customWidth="1"/>
-    <col min="3" max="4" width="15.6328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="25.6328125" style="6" customWidth="1"/>
-    <col min="8" max="11" width="15.6328125" style="6" customWidth="1"/>
-    <col min="12" max="16" width="15.6328125" style="4" customWidth="1"/>
-    <col min="17" max="18" width="20.6328125" style="4" customWidth="1"/>
-    <col min="19" max="25" width="15.6328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25.6328125" style="5" customWidth="1"/>
+    <col min="8" max="11" width="15.6328125" style="5" customWidth="1"/>
+    <col min="12" max="16" width="15.6328125" style="3" customWidth="1"/>
+    <col min="17" max="18" width="20.6328125" style="3" customWidth="1"/>
+    <col min="19" max="25" width="15.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1">
-      <c r="A1" s="3" t="str" cm="1">
+      <c r="A1" s="2" t="str" cm="1">
         <f t="array" ref="A1:Y1">column_ref!A1:Y1</f>
         <v>action</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="2" t="str">
         <v>login|email</v>
       </c>
-      <c r="C1" s="3" t="str">
+      <c r="C1" s="2" t="str">
         <v>login|name</v>
       </c>
-      <c r="D1" s="3" t="str">
+      <c r="D1" s="2" t="str">
         <v>login|result</v>
       </c>
-      <c r="E1" s="8" t="str">
+      <c r="E1" s="7" t="str">
         <v>signup|title</v>
       </c>
-      <c r="F1" s="3" t="str">
+      <c r="F1" s="2" t="str">
         <v>signup|name</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="2" t="str">
         <v>signup|email</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="2" t="str">
         <v>signup|password</v>
       </c>
-      <c r="I1" s="3" t="str">
+      <c r="I1" s="2" t="str">
         <v>signup|day</v>
       </c>
-      <c r="J1" s="3" t="str">
+      <c r="J1" s="2" t="str">
         <v>signup|month</v>
       </c>
-      <c r="K1" s="3" t="str">
+      <c r="K1" s="2" t="str">
         <v>signup|year</v>
       </c>
-      <c r="L1" s="3" t="str">
+      <c r="L1" s="2" t="str">
         <v>signup|newsletter</v>
       </c>
-      <c r="M1" s="3" t="str">
+      <c r="M1" s="2" t="str">
         <v>signup|specialoffer</v>
       </c>
-      <c r="N1" s="3" t="str">
+      <c r="N1" s="2" t="str">
         <v>signup|firstname</v>
       </c>
-      <c r="O1" s="3" t="str">
+      <c r="O1" s="2" t="str">
         <v>signup|lastname</v>
       </c>
-      <c r="P1" s="3" t="str">
+      <c r="P1" s="2" t="str">
         <v>signup|company</v>
       </c>
-      <c r="Q1" s="3" t="str">
+      <c r="Q1" s="2" t="str">
         <v>signup|address</v>
       </c>
-      <c r="R1" s="3" t="str">
+      <c r="R1" s="2" t="str">
         <v>signup|address2</v>
       </c>
-      <c r="S1" s="3" t="str">
+      <c r="S1" s="2" t="str">
         <v>signup|country</v>
       </c>
-      <c r="T1" s="3" t="str">
+      <c r="T1" s="2" t="str">
         <v>signup|state</v>
       </c>
-      <c r="U1" s="3" t="str">
+      <c r="U1" s="2" t="str">
         <v>signup|city</v>
       </c>
-      <c r="V1" s="3" t="str">
+      <c r="V1" s="2" t="str">
         <v>signup|zipcode</v>
       </c>
-      <c r="W1" s="3" t="str">
+      <c r="W1" s="2" t="str">
         <v>signup|mobile</v>
       </c>
-      <c r="X1" s="3" t="str">
+      <c r="X1" s="2" t="str">
         <v>signup|result</v>
       </c>
-      <c r="Y1" s="3" t="str">
+      <c r="Y1" s="2" t="str">
         <v>signup|action</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="23" customFormat="1">
+    <row r="2" spans="1:25" s="17" customFormat="1">
       <c r="A2" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="P2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="17" t="s">
+      <c r="Y2" s="14" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{FB417633-C949-4933-8753-93155D0E44BD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1125,138 +1103,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B072903-4F7F-4D95-AD34-9BF2671CB141}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:R1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="25.6328125" style="6" customWidth="1"/>
-    <col min="9" max="11" width="15.6328125" style="6" customWidth="1"/>
-    <col min="12" max="16" width="15.6328125" style="4" customWidth="1"/>
-    <col min="17" max="18" width="20.6328125" style="4" customWidth="1"/>
-    <col min="19" max="25" width="15.6328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.6328125" style="5" customWidth="1"/>
+    <col min="9" max="11" width="15.6328125" style="5" customWidth="1"/>
+    <col min="12" max="16" width="15.6328125" style="3" customWidth="1"/>
+    <col min="17" max="18" width="20.6328125" style="3" customWidth="1"/>
+    <col min="19" max="25" width="15.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1">
-      <c r="A1" s="3" t="str" cm="1">
+      <c r="A1" s="2" t="str" cm="1">
         <f t="array" ref="A1:Y1">column_ref!A1:Y1</f>
         <v>action</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="2" t="str">
         <v>login|email</v>
       </c>
-      <c r="C1" s="3" t="str">
+      <c r="C1" s="2" t="str">
         <v>login|name</v>
       </c>
-      <c r="D1" s="3" t="str">
+      <c r="D1" s="2" t="str">
         <v>login|result</v>
       </c>
-      <c r="E1" s="8" t="str">
+      <c r="E1" s="7" t="str">
         <v>signup|title</v>
       </c>
-      <c r="F1" s="3" t="str">
+      <c r="F1" s="2" t="str">
         <v>signup|name</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="2" t="str">
         <v>signup|email</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="2" t="str">
         <v>signup|password</v>
       </c>
-      <c r="I1" s="3" t="str">
+      <c r="I1" s="2" t="str">
         <v>signup|day</v>
       </c>
-      <c r="J1" s="3" t="str">
+      <c r="J1" s="2" t="str">
         <v>signup|month</v>
       </c>
-      <c r="K1" s="3" t="str">
+      <c r="K1" s="2" t="str">
         <v>signup|year</v>
       </c>
-      <c r="L1" s="3" t="str">
+      <c r="L1" s="2" t="str">
         <v>signup|newsletter</v>
       </c>
-      <c r="M1" s="3" t="str">
+      <c r="M1" s="2" t="str">
         <v>signup|specialoffer</v>
       </c>
-      <c r="N1" s="3" t="str">
+      <c r="N1" s="2" t="str">
         <v>signup|firstname</v>
       </c>
-      <c r="O1" s="3" t="str">
+      <c r="O1" s="2" t="str">
         <v>signup|lastname</v>
       </c>
-      <c r="P1" s="3" t="str">
+      <c r="P1" s="2" t="str">
         <v>signup|company</v>
       </c>
-      <c r="Q1" s="3" t="str">
+      <c r="Q1" s="2" t="str">
         <v>signup|address</v>
       </c>
-      <c r="R1" s="3" t="str">
+      <c r="R1" s="2" t="str">
         <v>signup|address2</v>
       </c>
-      <c r="S1" s="3" t="str">
+      <c r="S1" s="2" t="str">
         <v>signup|country</v>
       </c>
-      <c r="T1" s="3" t="str">
+      <c r="T1" s="2" t="str">
         <v>signup|state</v>
       </c>
-      <c r="U1" s="3" t="str">
+      <c r="U1" s="2" t="str">
         <v>signup|city</v>
       </c>
-      <c r="V1" s="3" t="str">
+      <c r="V1" s="2" t="str">
         <v>signup|zipcode</v>
       </c>
-      <c r="W1" s="3" t="str">
+      <c r="W1" s="2" t="str">
         <v>signup|mobile</v>
       </c>
-      <c r="X1" s="3" t="str">
+      <c r="X1" s="2" t="str">
         <v>signup|result</v>
       </c>
-      <c r="Y1" s="3" t="str">
+      <c r="Y1" s="2" t="str">
         <v>signup|action</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="2" customFormat="1">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:25" s="12" customFormat="1">
+      <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
+      <c r="D2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1267,138 +1245,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E0B062-8BA0-431F-8BA8-AE7206FDF8B4}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="25.6328125" style="6" customWidth="1"/>
-    <col min="9" max="11" width="15.6328125" style="6" customWidth="1"/>
-    <col min="12" max="16" width="15.6328125" style="4" customWidth="1"/>
-    <col min="17" max="18" width="20.6328125" style="4" customWidth="1"/>
-    <col min="19" max="25" width="15.6328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.6328125" style="5" customWidth="1"/>
+    <col min="9" max="11" width="15.6328125" style="5" customWidth="1"/>
+    <col min="12" max="16" width="15.6328125" style="3" customWidth="1"/>
+    <col min="17" max="18" width="20.6328125" style="3" customWidth="1"/>
+    <col min="19" max="25" width="15.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1">
-      <c r="A1" s="3" t="str" cm="1">
+      <c r="A1" s="2" t="str" cm="1">
         <f t="array" ref="A1:Y1">column_ref!A1:Y1</f>
         <v>action</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="2" t="str">
         <v>login|email</v>
       </c>
-      <c r="C1" s="3" t="str">
+      <c r="C1" s="2" t="str">
         <v>login|name</v>
       </c>
-      <c r="D1" s="3" t="str">
+      <c r="D1" s="2" t="str">
         <v>login|result</v>
       </c>
-      <c r="E1" s="8" t="str">
+      <c r="E1" s="7" t="str">
         <v>signup|title</v>
       </c>
-      <c r="F1" s="3" t="str">
+      <c r="F1" s="2" t="str">
         <v>signup|name</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="2" t="str">
         <v>signup|email</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="2" t="str">
         <v>signup|password</v>
       </c>
-      <c r="I1" s="3" t="str">
+      <c r="I1" s="2" t="str">
         <v>signup|day</v>
       </c>
-      <c r="J1" s="3" t="str">
+      <c r="J1" s="2" t="str">
         <v>signup|month</v>
       </c>
-      <c r="K1" s="3" t="str">
+      <c r="K1" s="2" t="str">
         <v>signup|year</v>
       </c>
-      <c r="L1" s="3" t="str">
+      <c r="L1" s="2" t="str">
         <v>signup|newsletter</v>
       </c>
-      <c r="M1" s="3" t="str">
+      <c r="M1" s="2" t="str">
         <v>signup|specialoffer</v>
       </c>
-      <c r="N1" s="3" t="str">
+      <c r="N1" s="2" t="str">
         <v>signup|firstname</v>
       </c>
-      <c r="O1" s="3" t="str">
+      <c r="O1" s="2" t="str">
         <v>signup|lastname</v>
       </c>
-      <c r="P1" s="3" t="str">
+      <c r="P1" s="2" t="str">
         <v>signup|company</v>
       </c>
-      <c r="Q1" s="3" t="str">
+      <c r="Q1" s="2" t="str">
         <v>signup|address</v>
       </c>
-      <c r="R1" s="3" t="str">
+      <c r="R1" s="2" t="str">
         <v>signup|address2</v>
       </c>
-      <c r="S1" s="3" t="str">
+      <c r="S1" s="2" t="str">
         <v>signup|country</v>
       </c>
-      <c r="T1" s="3" t="str">
+      <c r="T1" s="2" t="str">
         <v>signup|state</v>
       </c>
-      <c r="U1" s="3" t="str">
+      <c r="U1" s="2" t="str">
         <v>signup|city</v>
       </c>
-      <c r="V1" s="3" t="str">
+      <c r="V1" s="2" t="str">
         <v>signup|zipcode</v>
       </c>
-      <c r="W1" s="3" t="str">
+      <c r="W1" s="2" t="str">
         <v>signup|mobile</v>
       </c>
-      <c r="X1" s="3" t="str">
+      <c r="X1" s="2" t="str">
         <v>signup|result</v>
       </c>
-      <c r="Y1" s="3" t="str">
+      <c r="Y1" s="2" t="str">
         <v>signup|action</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="2" customFormat="1">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:25" s="12" customFormat="1">
+      <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
+      <c r="D2" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1406,356 +1384,464 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054B2BE7-C4A0-408B-84CC-0AA45B1E0844}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC924EA-32FE-4579-99C1-DDFBF46EEB64}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="15.6328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="25.6328125" style="6" customWidth="1"/>
-    <col min="8" max="11" width="15.6328125" style="6" customWidth="1"/>
-    <col min="12" max="16" width="15.6328125" style="4" customWidth="1"/>
-    <col min="17" max="18" width="20.6328125" style="4" customWidth="1"/>
-    <col min="19" max="25" width="15.6328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.6328125" style="5" customWidth="1"/>
+    <col min="9" max="11" width="15.6328125" style="5" customWidth="1"/>
+    <col min="12" max="16" width="15.6328125" style="3" customWidth="1"/>
+    <col min="17" max="18" width="20.6328125" style="3" customWidth="1"/>
+    <col min="19" max="25" width="15.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1">
-      <c r="A1" s="3" t="str" cm="1">
+      <c r="A1" s="2" t="str" cm="1">
         <f t="array" ref="A1:Y1">column_ref!A1:Y1</f>
         <v>action</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="2" t="str">
         <v>login|email</v>
       </c>
-      <c r="C1" s="3" t="str">
+      <c r="C1" s="2" t="str">
         <v>login|name</v>
       </c>
-      <c r="D1" s="3" t="str">
+      <c r="D1" s="2" t="str">
         <v>login|result</v>
       </c>
-      <c r="E1" s="8" t="str">
+      <c r="E1" s="7" t="str">
         <v>signup|title</v>
       </c>
-      <c r="F1" s="3" t="str">
+      <c r="F1" s="2" t="str">
         <v>signup|name</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="2" t="str">
         <v>signup|email</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="2" t="str">
         <v>signup|password</v>
       </c>
-      <c r="I1" s="3" t="str">
+      <c r="I1" s="2" t="str">
         <v>signup|day</v>
       </c>
-      <c r="J1" s="3" t="str">
+      <c r="J1" s="2" t="str">
         <v>signup|month</v>
       </c>
-      <c r="K1" s="3" t="str">
+      <c r="K1" s="2" t="str">
         <v>signup|year</v>
       </c>
-      <c r="L1" s="3" t="str">
+      <c r="L1" s="2" t="str">
         <v>signup|newsletter</v>
       </c>
-      <c r="M1" s="3" t="str">
+      <c r="M1" s="2" t="str">
         <v>signup|specialoffer</v>
       </c>
-      <c r="N1" s="3" t="str">
+      <c r="N1" s="2" t="str">
         <v>signup|firstname</v>
       </c>
-      <c r="O1" s="3" t="str">
+      <c r="O1" s="2" t="str">
         <v>signup|lastname</v>
       </c>
-      <c r="P1" s="3" t="str">
+      <c r="P1" s="2" t="str">
         <v>signup|company</v>
       </c>
-      <c r="Q1" s="3" t="str">
+      <c r="Q1" s="2" t="str">
         <v>signup|address</v>
       </c>
-      <c r="R1" s="3" t="str">
+      <c r="R1" s="2" t="str">
         <v>signup|address2</v>
       </c>
-      <c r="S1" s="3" t="str">
+      <c r="S1" s="2" t="str">
         <v>signup|country</v>
       </c>
-      <c r="T1" s="3" t="str">
+      <c r="T1" s="2" t="str">
         <v>signup|state</v>
       </c>
-      <c r="U1" s="3" t="str">
+      <c r="U1" s="2" t="str">
         <v>signup|city</v>
       </c>
-      <c r="V1" s="3" t="str">
+      <c r="V1" s="2" t="str">
         <v>signup|zipcode</v>
       </c>
-      <c r="W1" s="3" t="str">
+      <c r="W1" s="2" t="str">
         <v>signup|mobile</v>
       </c>
-      <c r="X1" s="3" t="str">
+      <c r="X1" s="2" t="str">
         <v>signup|result</v>
       </c>
-      <c r="Y1" s="3" t="str">
+      <c r="Y1" s="2" t="str">
         <v>signup|action</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="15" customFormat="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="14" t="s">
+    <row r="2" spans="1:25" s="12" customFormat="1">
+      <c r="A2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="13"/>
+      <c r="D2" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{E03D0795-97F9-451A-B4D5-404CAC1FA7BB}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{858DC3FE-ABAB-488D-A296-BF5923DDFDBE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A899ADF-BB77-47F3-8F15-27E62D138A44}">
-  <dimension ref="A1:Z2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7041F1C-57B2-43D4-AD93-2BE07E2753E5}">
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="15.6328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="25.6328125" style="6" customWidth="1"/>
-    <col min="8" max="11" width="15.6328125" style="6" customWidth="1"/>
-    <col min="12" max="16" width="15.6328125" style="4" customWidth="1"/>
-    <col min="17" max="18" width="25.6328125" style="4" customWidth="1"/>
-    <col min="19" max="26" width="15.6328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.6328125" style="5" customWidth="1"/>
+    <col min="9" max="11" width="15.6328125" style="5" customWidth="1"/>
+    <col min="12" max="16" width="15.6328125" style="3" customWidth="1"/>
+    <col min="17" max="18" width="20.6328125" style="3" customWidth="1"/>
+    <col min="19" max="25" width="15.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1">
-      <c r="A1" s="3" t="str" cm="1">
+    <row r="1" spans="1:25" s="1" customFormat="1">
+      <c r="A1" s="2" t="str" cm="1">
         <f t="array" ref="A1:Y1">column_ref!A1:Y1</f>
         <v>action</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="2" t="str">
         <v>login|email</v>
       </c>
-      <c r="C1" s="3" t="str">
+      <c r="C1" s="2" t="str">
         <v>login|name</v>
       </c>
-      <c r="D1" s="3" t="str">
+      <c r="D1" s="2" t="str">
         <v>login|result</v>
       </c>
-      <c r="E1" s="8" t="str">
+      <c r="E1" s="7" t="str">
         <v>signup|title</v>
       </c>
-      <c r="F1" s="3" t="str">
+      <c r="F1" s="2" t="str">
         <v>signup|name</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="2" t="str">
         <v>signup|email</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="2" t="str">
         <v>signup|password</v>
       </c>
-      <c r="I1" s="3" t="str">
+      <c r="I1" s="2" t="str">
         <v>signup|day</v>
       </c>
-      <c r="J1" s="3" t="str">
+      <c r="J1" s="2" t="str">
         <v>signup|month</v>
       </c>
-      <c r="K1" s="3" t="str">
+      <c r="K1" s="2" t="str">
         <v>signup|year</v>
       </c>
-      <c r="L1" s="3" t="str">
+      <c r="L1" s="2" t="str">
         <v>signup|newsletter</v>
       </c>
-      <c r="M1" s="3" t="str">
+      <c r="M1" s="2" t="str">
         <v>signup|specialoffer</v>
       </c>
-      <c r="N1" s="3" t="str">
+      <c r="N1" s="2" t="str">
         <v>signup|firstname</v>
       </c>
-      <c r="O1" s="3" t="str">
+      <c r="O1" s="2" t="str">
         <v>signup|lastname</v>
       </c>
-      <c r="P1" s="3" t="str">
+      <c r="P1" s="2" t="str">
         <v>signup|company</v>
       </c>
-      <c r="Q1" s="3" t="str">
+      <c r="Q1" s="2" t="str">
         <v>signup|address</v>
       </c>
-      <c r="R1" s="3" t="str">
+      <c r="R1" s="2" t="str">
         <v>signup|address2</v>
       </c>
-      <c r="S1" s="3" t="str">
+      <c r="S1" s="2" t="str">
         <v>signup|country</v>
       </c>
-      <c r="T1" s="3" t="str">
+      <c r="T1" s="2" t="str">
         <v>signup|state</v>
       </c>
-      <c r="U1" s="3" t="str">
+      <c r="U1" s="2" t="str">
         <v>signup|city</v>
       </c>
-      <c r="V1" s="3" t="str">
+      <c r="V1" s="2" t="str">
         <v>signup|zipcode</v>
       </c>
-      <c r="W1" s="3" t="str">
+      <c r="W1" s="2" t="str">
         <v>signup|mobile</v>
       </c>
-      <c r="X1" s="3" t="str">
+      <c r="X1" s="2" t="str">
         <v>signup|result</v>
       </c>
-      <c r="Y1" s="3" t="str">
+      <c r="Y1" s="2" t="str">
         <v>signup|action</v>
       </c>
-      <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" s="23" customFormat="1">
-      <c r="A2" s="18"/>
+    <row r="2" spans="1:25" s="12" customFormat="1">
+      <c r="A2" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="B2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3EE532-B8D9-42DA-9FC4-2FA4092FF4DB}">
+  <dimension ref="A1:Y2"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="20.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25.6328125" style="5" customWidth="1"/>
+    <col min="8" max="11" width="15.6328125" style="5" customWidth="1"/>
+    <col min="12" max="16" width="15.6328125" style="3" customWidth="1"/>
+    <col min="17" max="18" width="20.6328125" style="3" customWidth="1"/>
+    <col min="19" max="25" width="15.6328125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="1" customFormat="1">
+      <c r="A1" s="2" t="str" cm="1">
+        <f t="array" ref="A1:Y1">column_ref!A1:Y1</f>
+        <v>action</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <v>login|email</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <v>login|name</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <v>login|result</v>
+      </c>
+      <c r="E1" s="7" t="str">
+        <v>signup|title</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <v>signup|name</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <v>signup|email</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <v>signup|password</v>
+      </c>
+      <c r="I1" s="2" t="str">
+        <v>signup|day</v>
+      </c>
+      <c r="J1" s="2" t="str">
+        <v>signup|month</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <v>signup|year</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <v>signup|newsletter</v>
+      </c>
+      <c r="M1" s="2" t="str">
+        <v>signup|specialoffer</v>
+      </c>
+      <c r="N1" s="2" t="str">
+        <v>signup|firstname</v>
+      </c>
+      <c r="O1" s="2" t="str">
+        <v>signup|lastname</v>
+      </c>
+      <c r="P1" s="2" t="str">
+        <v>signup|company</v>
+      </c>
+      <c r="Q1" s="2" t="str">
+        <v>signup|address</v>
+      </c>
+      <c r="R1" s="2" t="str">
+        <v>signup|address2</v>
+      </c>
+      <c r="S1" s="2" t="str">
+        <v>signup|country</v>
+      </c>
+      <c r="T1" s="2" t="str">
+        <v>signup|state</v>
+      </c>
+      <c r="U1" s="2" t="str">
+        <v>signup|city</v>
+      </c>
+      <c r="V1" s="2" t="str">
+        <v>signup|zipcode</v>
+      </c>
+      <c r="W1" s="2" t="str">
+        <v>signup|mobile</v>
+      </c>
+      <c r="X1" s="2" t="str">
+        <v>signup|result</v>
+      </c>
+      <c r="Y1" s="2" t="str">
+        <v>signup|action</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="17" customFormat="1">
+      <c r="A2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="I2" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
+      <c r="Y2" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{7EA4FD42-F7BA-4272-92F7-CDC449D2D753}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{BB82C4D2-E10B-4FBD-BD50-6372BC3A50F9}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{669B48A1-A82D-4C2F-A5BD-8B265826E9DD}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{BB8A79A2-B168-45F5-96DA-6E95A1CE8763}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cypress/fixtures/testCaseCriteria/testCaseCriteria_register.xlsx
+++ b/cypress/fixtures/testCaseCriteria/testCaseCriteria_register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\awika-portfolio\automationexercise\cypress\fixtures\testCaseCriteria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8B5A43-9504-47B1-B181-DF3E1309868A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB677BC-C502-4B25-B05D-1D7C0B702340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="-15000" windowWidth="25860" windowHeight="11880" tabRatio="553" activeTab="1" xr2:uid="{63A55816-40FB-44DD-8B96-272E0273596B}"/>
+    <workbookView xWindow="8460" yWindow="-13275" windowWidth="21525" windowHeight="10830" tabRatio="553" firstSheet="1" activeTab="8" xr2:uid="{63A55816-40FB-44DD-8B96-272E0273596B}"/>
   </bookViews>
   <sheets>
     <sheet name="column_ref" sheetId="20" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="reg_04" sheetId="24" r:id="rId5"/>
     <sheet name="reg_05" sheetId="25" r:id="rId6"/>
     <sheet name="reg_06" sheetId="26" r:id="rId7"/>
+    <sheet name="reg_07" sheetId="27" r:id="rId8"/>
+    <sheet name="reg_08" sheetId="28" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="79">
   <si>
     <t>action</t>
   </si>
@@ -282,6 +284,30 @@
   </si>
   <si>
     <t>failed-dateOfBirth</t>
+  </si>
+  <si>
+    <t>automated.test.rename@mail.com</t>
+  </si>
+  <si>
+    <t>Automated Name</t>
+  </si>
+  <si>
+    <t>Automated Rename</t>
+  </si>
+  <si>
+    <t>automatedRename</t>
+  </si>
+  <si>
+    <t>Rename</t>
+  </si>
+  <si>
+    <t>automated.test.check@mail.com</t>
+  </si>
+  <si>
+    <t>Automated check</t>
+  </si>
+  <si>
+    <t>signup-check</t>
   </si>
 </sst>
 </file>
@@ -402,15 +428,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -421,6 +445,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -837,7 +863,7 @@
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -904,7 +930,7 @@
       <c r="X2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="Y2" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -921,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A8D453-88BA-4430-BEC2-9D2C3EA6C8DE}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1017,11 +1043,11 @@
         <v>signup|action</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="17" customFormat="1">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:25" s="16" customFormat="1">
+      <c r="A2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1036,19 +1062,19 @@
       <c r="F2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" t="s">
         <v>42</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>49</v>
       </c>
       <c r="L2" s="14" t="s">
@@ -1057,13 +1083,13 @@
       <c r="M2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="15" t="s">
         <v>41</v>
       </c>
       <c r="Q2" s="14" t="s">
@@ -1211,30 +1237,30 @@
       <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1353,30 +1379,30 @@
       <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1493,30 +1519,30 @@
       <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1629,34 +1655,34 @@
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="11"/>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1763,11 +1789,11 @@
         <v>signup|action</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="17" customFormat="1">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:25" s="16" customFormat="1">
+      <c r="A2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1782,19 +1808,19 @@
       <c r="F2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>63</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>49</v>
       </c>
       <c r="L2" s="14" t="s">
@@ -1803,13 +1829,13 @@
       <c r="M2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="15" t="s">
         <v>41</v>
       </c>
       <c r="Q2" s="14" t="s">
@@ -1845,4 +1871,371 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990B0AF9-7626-4249-B3F7-BB64A23F59EE}">
+  <dimension ref="A1:Y2"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="20.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25.6328125" style="5" customWidth="1"/>
+    <col min="8" max="11" width="15.6328125" style="5" customWidth="1"/>
+    <col min="12" max="16" width="15.6328125" style="3" customWidth="1"/>
+    <col min="17" max="18" width="20.6328125" style="3" customWidth="1"/>
+    <col min="19" max="25" width="15.6328125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="1" customFormat="1">
+      <c r="A1" s="2" t="str" cm="1">
+        <f t="array" ref="A1:Y1">column_ref!A1:Y1</f>
+        <v>action</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <v>login|email</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <v>login|name</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <v>login|result</v>
+      </c>
+      <c r="E1" s="7" t="str">
+        <v>signup|title</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <v>signup|name</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <v>signup|email</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <v>signup|password</v>
+      </c>
+      <c r="I1" s="2" t="str">
+        <v>signup|day</v>
+      </c>
+      <c r="J1" s="2" t="str">
+        <v>signup|month</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <v>signup|year</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <v>signup|newsletter</v>
+      </c>
+      <c r="M1" s="2" t="str">
+        <v>signup|specialoffer</v>
+      </c>
+      <c r="N1" s="2" t="str">
+        <v>signup|firstname</v>
+      </c>
+      <c r="O1" s="2" t="str">
+        <v>signup|lastname</v>
+      </c>
+      <c r="P1" s="2" t="str">
+        <v>signup|company</v>
+      </c>
+      <c r="Q1" s="2" t="str">
+        <v>signup|address</v>
+      </c>
+      <c r="R1" s="2" t="str">
+        <v>signup|address2</v>
+      </c>
+      <c r="S1" s="2" t="str">
+        <v>signup|country</v>
+      </c>
+      <c r="T1" s="2" t="str">
+        <v>signup|state</v>
+      </c>
+      <c r="U1" s="2" t="str">
+        <v>signup|city</v>
+      </c>
+      <c r="V1" s="2" t="str">
+        <v>signup|zipcode</v>
+      </c>
+      <c r="W1" s="2" t="str">
+        <v>signup|mobile</v>
+      </c>
+      <c r="X1" s="2" t="str">
+        <v>signup|result</v>
+      </c>
+      <c r="Y1" s="2" t="str">
+        <v>signup|action</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="16" customFormat="1">
+      <c r="A2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA1E833-B3FA-4223-B831-CC7D7BB451DB}">
+  <dimension ref="A1:Y2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="20.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25.6328125" style="5" customWidth="1"/>
+    <col min="8" max="11" width="15.6328125" style="5" customWidth="1"/>
+    <col min="12" max="16" width="15.6328125" style="3" customWidth="1"/>
+    <col min="17" max="18" width="20.6328125" style="3" customWidth="1"/>
+    <col min="19" max="25" width="15.6328125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="1" customFormat="1">
+      <c r="A1" s="2" t="str" cm="1">
+        <f t="array" ref="A1:Y1">column_ref!A1:Y1</f>
+        <v>action</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <v>login|email</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <v>login|name</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <v>login|result</v>
+      </c>
+      <c r="E1" s="7" t="str">
+        <v>signup|title</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <v>signup|name</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <v>signup|email</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <v>signup|password</v>
+      </c>
+      <c r="I1" s="2" t="str">
+        <v>signup|day</v>
+      </c>
+      <c r="J1" s="2" t="str">
+        <v>signup|month</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <v>signup|year</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <v>signup|newsletter</v>
+      </c>
+      <c r="M1" s="2" t="str">
+        <v>signup|specialoffer</v>
+      </c>
+      <c r="N1" s="2" t="str">
+        <v>signup|firstname</v>
+      </c>
+      <c r="O1" s="2" t="str">
+        <v>signup|lastname</v>
+      </c>
+      <c r="P1" s="2" t="str">
+        <v>signup|company</v>
+      </c>
+      <c r="Q1" s="2" t="str">
+        <v>signup|address</v>
+      </c>
+      <c r="R1" s="2" t="str">
+        <v>signup|address2</v>
+      </c>
+      <c r="S1" s="2" t="str">
+        <v>signup|country</v>
+      </c>
+      <c r="T1" s="2" t="str">
+        <v>signup|state</v>
+      </c>
+      <c r="U1" s="2" t="str">
+        <v>signup|city</v>
+      </c>
+      <c r="V1" s="2" t="str">
+        <v>signup|zipcode</v>
+      </c>
+      <c r="W1" s="2" t="str">
+        <v>signup|mobile</v>
+      </c>
+      <c r="X1" s="2" t="str">
+        <v>signup|result</v>
+      </c>
+      <c r="Y1" s="2" t="str">
+        <v>signup|action</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="16" customFormat="1">
+      <c r="A2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{4B533301-368F-462E-A914-1974AF34298D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cypress/fixtures/testCaseCriteria/testCaseCriteria_register.xlsx
+++ b/cypress/fixtures/testCaseCriteria/testCaseCriteria_register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\awika-portfolio\automationexercise\cypress\fixtures\testCaseCriteria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB677BC-C502-4B25-B05D-1D7C0B702340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C383E8B0-E728-4ADF-B9AD-876C377A7033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="-13275" windowWidth="21525" windowHeight="10830" tabRatio="553" firstSheet="1" activeTab="8" xr2:uid="{63A55816-40FB-44DD-8B96-272E0273596B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="553" activeTab="1" xr2:uid="{63A55816-40FB-44DD-8B96-272E0273596B}"/>
   </bookViews>
   <sheets>
     <sheet name="column_ref" sheetId="20" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="reg_05" sheetId="25" r:id="rId6"/>
     <sheet name="reg_06" sheetId="26" r:id="rId7"/>
     <sheet name="reg_07" sheetId="27" r:id="rId8"/>
-    <sheet name="reg_08" sheetId="28" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
   <si>
     <t>action</t>
   </si>
@@ -300,21 +299,12 @@
   <si>
     <t>Rename</t>
   </si>
-  <si>
-    <t>automated.test.check@mail.com</t>
-  </si>
-  <si>
-    <t>Automated check</t>
-  </si>
-  <si>
-    <t>signup-check</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -445,8 +435,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -768,7 +756,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.6328125" style="4" customWidth="1"/>
     <col min="2" max="2" width="25.6328125" style="3" customWidth="1"/>
@@ -782,7 +770,7 @@
     <col min="19" max="25" width="15.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -859,7 +847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="12" customFormat="1" ht="72.5">
+    <row r="2" spans="1:25" s="12" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -947,11 +935,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A8D453-88BA-4430-BEC2-9D2C3EA6C8DE}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.6328125" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.08984375" style="4" customWidth="1"/>
@@ -965,7 +953,7 @@
     <col min="19" max="25" width="15.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="str" cm="1">
         <f t="array" ref="A1:Y1">column_ref!A1:Y1</f>
         <v>action</v>
@@ -1043,7 +1031,7 @@
         <v>signup|action</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="16" customFormat="1">
+    <row r="2" spans="1:25" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>34</v>
       </c>
@@ -1133,7 +1121,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.6328125" style="4" customWidth="1"/>
     <col min="2" max="2" width="25.6328125" style="4" customWidth="1"/>
@@ -1149,7 +1137,7 @@
     <col min="19" max="25" width="15.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="str" cm="1">
         <f t="array" ref="A1:Y1">column_ref!A1:Y1</f>
         <v>action</v>
@@ -1227,7 +1215,7 @@
         <v>signup|action</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="12" customFormat="1">
+    <row r="2" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -1275,7 +1263,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.6328125" style="4" customWidth="1"/>
     <col min="2" max="2" width="25.6328125" style="4" customWidth="1"/>
@@ -1291,7 +1279,7 @@
     <col min="19" max="25" width="15.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="str" cm="1">
         <f t="array" ref="A1:Y1">column_ref!A1:Y1</f>
         <v>action</v>
@@ -1369,7 +1357,7 @@
         <v>signup|action</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="12" customFormat="1">
+    <row r="2" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -1417,7 +1405,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.6328125" style="4" customWidth="1"/>
     <col min="2" max="2" width="25.6328125" style="4" customWidth="1"/>
@@ -1433,7 +1421,7 @@
     <col min="19" max="25" width="15.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="str" cm="1">
         <f t="array" ref="A1:Y1">column_ref!A1:Y1</f>
         <v>action</v>
@@ -1511,7 +1499,7 @@
         <v>signup|action</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="12" customFormat="1">
+    <row r="2" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -1557,7 +1545,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.6328125" style="4" customWidth="1"/>
     <col min="2" max="2" width="25.6328125" style="4" customWidth="1"/>
@@ -1573,7 +1561,7 @@
     <col min="19" max="25" width="15.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="str" cm="1">
         <f t="array" ref="A1:Y1">column_ref!A1:Y1</f>
         <v>action</v>
@@ -1651,7 +1639,7 @@
         <v>signup|action</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="12" customFormat="1">
+    <row r="2" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -1694,10 +1682,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.6328125" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.08984375" style="4" customWidth="1"/>
@@ -1711,7 +1699,7 @@
     <col min="19" max="25" width="15.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="str" cm="1">
         <f t="array" ref="A1:Y1">column_ref!A1:Y1</f>
         <v>action</v>
@@ -1789,7 +1777,7 @@
         <v>signup|action</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="16" customFormat="1">
+    <row r="2" spans="1:25" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>34</v>
       </c>
@@ -1877,11 +1865,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990B0AF9-7626-4249-B3F7-BB64A23F59EE}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.6328125" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.08984375" style="4" customWidth="1"/>
@@ -1895,7 +1883,7 @@
     <col min="19" max="25" width="15.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="str" cm="1">
         <f t="array" ref="A1:Y1">column_ref!A1:Y1</f>
         <v>action</v>
@@ -1973,11 +1961,11 @@
         <v>signup|action</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="16" customFormat="1">
+    <row r="2" spans="1:25" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1992,7 +1980,7 @@
       <c r="F2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" t="s">
         <v>71</v>
       </c>
       <c r="H2" s="14" t="s">
@@ -2053,189 +2041,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA1E833-B3FA-4223-B831-CC7D7BB451DB}">
-  <dimension ref="A1:Y2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="20.6328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.08984375" style="4" customWidth="1"/>
-    <col min="3" max="4" width="15.6328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="25.6328125" style="5" customWidth="1"/>
-    <col min="8" max="11" width="15.6328125" style="5" customWidth="1"/>
-    <col min="12" max="16" width="15.6328125" style="3" customWidth="1"/>
-    <col min="17" max="18" width="20.6328125" style="3" customWidth="1"/>
-    <col min="19" max="25" width="15.6328125" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1">
-      <c r="A1" s="2" t="str" cm="1">
-        <f t="array" ref="A1:Y1">column_ref!A1:Y1</f>
-        <v>action</v>
-      </c>
-      <c r="B1" s="2" t="str">
-        <v>login|email</v>
-      </c>
-      <c r="C1" s="2" t="str">
-        <v>login|name</v>
-      </c>
-      <c r="D1" s="2" t="str">
-        <v>login|result</v>
-      </c>
-      <c r="E1" s="7" t="str">
-        <v>signup|title</v>
-      </c>
-      <c r="F1" s="2" t="str">
-        <v>signup|name</v>
-      </c>
-      <c r="G1" s="2" t="str">
-        <v>signup|email</v>
-      </c>
-      <c r="H1" s="2" t="str">
-        <v>signup|password</v>
-      </c>
-      <c r="I1" s="2" t="str">
-        <v>signup|day</v>
-      </c>
-      <c r="J1" s="2" t="str">
-        <v>signup|month</v>
-      </c>
-      <c r="K1" s="2" t="str">
-        <v>signup|year</v>
-      </c>
-      <c r="L1" s="2" t="str">
-        <v>signup|newsletter</v>
-      </c>
-      <c r="M1" s="2" t="str">
-        <v>signup|specialoffer</v>
-      </c>
-      <c r="N1" s="2" t="str">
-        <v>signup|firstname</v>
-      </c>
-      <c r="O1" s="2" t="str">
-        <v>signup|lastname</v>
-      </c>
-      <c r="P1" s="2" t="str">
-        <v>signup|company</v>
-      </c>
-      <c r="Q1" s="2" t="str">
-        <v>signup|address</v>
-      </c>
-      <c r="R1" s="2" t="str">
-        <v>signup|address2</v>
-      </c>
-      <c r="S1" s="2" t="str">
-        <v>signup|country</v>
-      </c>
-      <c r="T1" s="2" t="str">
-        <v>signup|state</v>
-      </c>
-      <c r="U1" s="2" t="str">
-        <v>signup|city</v>
-      </c>
-      <c r="V1" s="2" t="str">
-        <v>signup|zipcode</v>
-      </c>
-      <c r="W1" s="2" t="str">
-        <v>signup|mobile</v>
-      </c>
-      <c r="X1" s="2" t="str">
-        <v>signup|result</v>
-      </c>
-      <c r="Y1" s="2" t="str">
-        <v>signup|action</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="16" customFormat="1">
-      <c r="A2" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{4B533301-368F-462E-A914-1974AF34298D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>